--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dcn-Tlr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dcn-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.15163</v>
+        <v>1.006697333333333</v>
       </c>
       <c r="H2">
-        <v>9.454890000000001</v>
+        <v>3.020092</v>
       </c>
       <c r="I2">
-        <v>0.0006291248881010851</v>
+        <v>0.0001985651645046208</v>
       </c>
       <c r="J2">
-        <v>0.0006291248881010851</v>
+        <v>0.0001985651645046208</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>51.23401333333334</v>
+        <v>0.493155</v>
       </c>
       <c r="N2">
-        <v>153.70204</v>
+        <v>1.479465</v>
       </c>
       <c r="O2">
-        <v>0.9688226788583661</v>
+        <v>0.2262533155038342</v>
       </c>
       <c r="P2">
-        <v>0.9688226788583661</v>
+        <v>0.2262533155038342</v>
       </c>
       <c r="Q2">
-        <v>161.4706534417334</v>
+        <v>0.49645782342</v>
       </c>
       <c r="R2">
-        <v>1453.2358809756</v>
+        <v>4.46812041078</v>
       </c>
       <c r="S2">
-        <v>0.000609510459426563</v>
+        <v>4.492602681273471E-05</v>
       </c>
       <c r="T2">
-        <v>0.000609510459426563</v>
+        <v>4.492602681273471E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.15163</v>
+        <v>1.006697333333333</v>
       </c>
       <c r="H3">
-        <v>9.454890000000001</v>
+        <v>3.020092</v>
       </c>
       <c r="I3">
-        <v>0.0006291248881010851</v>
+        <v>0.0001985651645046208</v>
       </c>
       <c r="J3">
-        <v>0.0006291248881010851</v>
+        <v>0.0001985651645046208</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,27 +620,27 @@
         <v>4.946228</v>
       </c>
       <c r="O3">
-        <v>0.03117732114163389</v>
+        <v>0.7564224123165462</v>
       </c>
       <c r="P3">
-        <v>0.03117732114163389</v>
+        <v>0.7564224123165462</v>
       </c>
       <c r="Q3">
-        <v>5.196226850546666</v>
+        <v>1.659784845886222</v>
       </c>
       <c r="R3">
-        <v>46.76604165492</v>
+        <v>14.938063612976</v>
       </c>
       <c r="S3">
-        <v>1.961442867452201E-05</v>
+        <v>0.0001501991407366171</v>
       </c>
       <c r="T3">
-        <v>1.961442867452201E-05</v>
+        <v>0.0001501991407366171</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4971.754394666666</v>
+        <v>1.006697333333333</v>
       </c>
       <c r="H4">
-        <v>14915.263184</v>
+        <v>3.020092</v>
       </c>
       <c r="I4">
-        <v>0.9924561027819714</v>
+        <v>0.0001985651645046208</v>
       </c>
       <c r="J4">
-        <v>0.9924561027819713</v>
+        <v>0.0001985651645046208</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>51.23401333333334</v>
+        <v>0.037761</v>
       </c>
       <c r="N4">
-        <v>153.70204</v>
+        <v>0.113283</v>
       </c>
       <c r="O4">
-        <v>0.9688226788583661</v>
+        <v>0.01732427217961956</v>
       </c>
       <c r="P4">
-        <v>0.9688226788583661</v>
+        <v>0.01732427217961956</v>
       </c>
       <c r="Q4">
-        <v>254722.9309464106</v>
+        <v>0.038013898004</v>
       </c>
       <c r="R4">
-        <v>2292506.378517696</v>
+        <v>0.342125082036</v>
       </c>
       <c r="S4">
-        <v>0.9615139801465635</v>
+        <v>3.439996955268984E-06</v>
       </c>
       <c r="T4">
-        <v>0.9615139801465634</v>
+        <v>3.439996955268984E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,10 +726,10 @@
         <v>14915.263184</v>
       </c>
       <c r="I5">
-        <v>0.9924561027819714</v>
+        <v>0.9806494927176636</v>
       </c>
       <c r="J5">
-        <v>0.9924561027819713</v>
+        <v>0.9806494927176637</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,33 +738,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.648742666666666</v>
+        <v>0.493155</v>
       </c>
       <c r="N5">
-        <v>4.946228</v>
+        <v>1.479465</v>
       </c>
       <c r="O5">
-        <v>0.03117732114163389</v>
+        <v>0.2262533155038342</v>
       </c>
       <c r="P5">
-        <v>0.03117732114163389</v>
+        <v>0.2262533155038342</v>
       </c>
       <c r="Q5">
-        <v>8197.143598674438</v>
+        <v>2451.84553850184</v>
       </c>
       <c r="R5">
-        <v>73774.29238806994</v>
+        <v>22066.60984651656</v>
       </c>
       <c r="S5">
-        <v>0.03094212263540793</v>
+        <v>0.2218751990745245</v>
       </c>
       <c r="T5">
-        <v>0.03094212263540793</v>
+        <v>0.2218751990745245</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,51 +782,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.63986933333333</v>
+        <v>4971.754394666666</v>
       </c>
       <c r="H6">
-        <v>103.919608</v>
+        <v>14915.263184</v>
       </c>
       <c r="I6">
-        <v>0.006914772329927541</v>
+        <v>0.9806494927176636</v>
       </c>
       <c r="J6">
-        <v>0.006914772329927542</v>
+        <v>0.9806494927176637</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>51.23401333333334</v>
+        <v>1.648742666666666</v>
       </c>
       <c r="N6">
-        <v>153.70204</v>
+        <v>4.946228</v>
       </c>
       <c r="O6">
-        <v>0.9688226788583661</v>
+        <v>0.7564224123165462</v>
       </c>
       <c r="P6">
-        <v>0.9688226788583661</v>
+        <v>0.7564224123165462</v>
       </c>
       <c r="Q6">
-        <v>1774.739527288925</v>
+        <v>8197.143598674438</v>
       </c>
       <c r="R6">
-        <v>15972.65574560032</v>
+        <v>73774.29238806994</v>
       </c>
       <c r="S6">
-        <v>0.006699188252376107</v>
+        <v>0.7417852549184923</v>
       </c>
       <c r="T6">
-        <v>0.006699188252376108</v>
+        <v>0.7417852549184925</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,46 +844,232 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>34.63986933333333</v>
+        <v>4971.754394666666</v>
       </c>
       <c r="H7">
-        <v>103.919608</v>
+        <v>14915.263184</v>
       </c>
       <c r="I7">
-        <v>0.006914772329927541</v>
+        <v>0.9806494927176636</v>
       </c>
       <c r="J7">
-        <v>0.006914772329927542</v>
+        <v>0.9806494927176637</v>
       </c>
       <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.037761</v>
+      </c>
+      <c r="N7">
+        <v>0.113283</v>
+      </c>
+      <c r="O7">
+        <v>0.01732427217961956</v>
+      </c>
+      <c r="P7">
+        <v>0.01732427217961956</v>
+      </c>
+      <c r="Q7">
+        <v>187.738417697008</v>
+      </c>
+      <c r="R7">
+        <v>1689.645759273072</v>
+      </c>
+      <c r="S7">
+        <v>0.01698903872464665</v>
+      </c>
+      <c r="T7">
+        <v>0.01698903872464666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>97.097641</v>
+      </c>
+      <c r="H8">
+        <v>291.292923</v>
+      </c>
+      <c r="I8">
+        <v>0.01915194211783179</v>
+      </c>
+      <c r="J8">
+        <v>0.01915194211783179</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M7">
+      <c r="M8">
+        <v>0.493155</v>
+      </c>
+      <c r="N8">
+        <v>1.479465</v>
+      </c>
+      <c r="O8">
+        <v>0.2262533155038342</v>
+      </c>
+      <c r="P8">
+        <v>0.2262533155038342</v>
+      </c>
+      <c r="Q8">
+        <v>47.884187147355</v>
+      </c>
+      <c r="R8">
+        <v>430.957684326195</v>
+      </c>
+      <c r="S8">
+        <v>0.004333190402496967</v>
+      </c>
+      <c r="T8">
+        <v>0.004333190402496967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>97.097641</v>
+      </c>
+      <c r="H9">
+        <v>291.292923</v>
+      </c>
+      <c r="I9">
+        <v>0.01915194211783179</v>
+      </c>
+      <c r="J9">
+        <v>0.01915194211783179</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
         <v>1.648742666666666</v>
       </c>
-      <c r="N7">
+      <c r="N9">
         <v>4.946228</v>
       </c>
-      <c r="O7">
-        <v>0.03117732114163389</v>
-      </c>
-      <c r="P7">
-        <v>0.03117732114163389</v>
-      </c>
-      <c r="Q7">
-        <v>57.11223053762487</v>
-      </c>
-      <c r="R7">
-        <v>514.010074838624</v>
-      </c>
-      <c r="S7">
-        <v>0.0002155840775514349</v>
-      </c>
-      <c r="T7">
-        <v>0.000215584077551435</v>
+      <c r="O9">
+        <v>0.7564224123165462</v>
+      </c>
+      <c r="P9">
+        <v>0.7564224123165462</v>
+      </c>
+      <c r="Q9">
+        <v>160.0890235493826</v>
+      </c>
+      <c r="R9">
+        <v>1440.801211944444</v>
+      </c>
+      <c r="S9">
+        <v>0.01448695825731718</v>
+      </c>
+      <c r="T9">
+        <v>0.01448695825731718</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>97.097641</v>
+      </c>
+      <c r="H10">
+        <v>291.292923</v>
+      </c>
+      <c r="I10">
+        <v>0.01915194211783179</v>
+      </c>
+      <c r="J10">
+        <v>0.01915194211783179</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.037761</v>
+      </c>
+      <c r="N10">
+        <v>0.113283</v>
+      </c>
+      <c r="O10">
+        <v>0.01732427217961956</v>
+      </c>
+      <c r="P10">
+        <v>0.01732427217961956</v>
+      </c>
+      <c r="Q10">
+        <v>3.666504021800999</v>
+      </c>
+      <c r="R10">
+        <v>32.998536196209</v>
+      </c>
+      <c r="S10">
+        <v>0.0003317934580176374</v>
+      </c>
+      <c r="T10">
+        <v>0.0003317934580176374</v>
       </c>
     </row>
   </sheetData>
